--- a/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,24 +707,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6585000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4850500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5812800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6196000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -733,24 +737,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5572000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5684300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6450100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6795600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,24 +767,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1013000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-833800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-637400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-599500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,9 +797,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,23 +814,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E12" s="3">
         <v>255300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>373600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>662600</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,9 +841,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +871,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-271500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-550600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>694300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -881,24 +901,27 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>214500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>190900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>192100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,9 +931,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,23 +945,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6645000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6212300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6823000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8719300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,24 +972,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1361800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1010200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2523300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,9 +1002,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,23 +1019,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E20" s="3">
         <v>149700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>89000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>70800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,24 +1046,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1310400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1757000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>495500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,24 +1076,27 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>151000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>225900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>157100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,24 +1106,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1363100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1147100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2609600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,24 +1136,27 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>224100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,9 +1166,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,24 +1196,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1350900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1371200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2626000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,24 +1226,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1347600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1371200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2553600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,9 +1256,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,24 +1286,27 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-148000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,9 +1316,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1346,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,24 +1376,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-149700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-89000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-70800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,24 +1406,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1347600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1371200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2701600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1436,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,24 +1466,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1347600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1371200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2701600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1417,29 +1496,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1531,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1548,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,20 +1562,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2939000</v>
+      </c>
+      <c r="E41" s="3">
         <v>347900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>396700</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,21 +1589,24 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>610700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>607400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,21 +1619,24 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1009500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2039300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,21 +1649,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E44" s="3">
         <v>919500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>351900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,21 +1679,24 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>99100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1610,21 +1709,24 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5291000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2986700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3514200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,21 +1739,24 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>115500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>271000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1664,21 +1769,24 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8713000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8226200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9611300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1691,21 +1799,24 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>547900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>634800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,9 +1829,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1859,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,21 +1889,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E52" s="3">
         <v>445200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>466300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,9 +1919,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,21 +1949,24 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15028000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12321600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14497500</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1853,9 +1979,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1996,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,20 +2010,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>600500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>559000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,21 +2037,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E58" s="3">
         <v>513100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>817800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1933,21 +2067,24 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2866000</v>
+      </c>
+      <c r="E59" s="3">
         <v>782500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>959300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1960,21 +2097,24 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1896100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2336100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,21 +2127,24 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2289400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2430500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2014,21 +2157,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E62" s="3">
         <v>894700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>711800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,9 +2187,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2217,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2247,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,21 +2277,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6995000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5145300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5478400</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,9 +2307,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2324,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2351,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2381,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2411,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,21 +2441,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15218500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13870900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,9 +2471,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2501,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2531,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,21 +2561,24 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8033000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7176400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9019100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2405,9 +2591,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,29 +2621,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2464,24 +2656,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1347600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1371200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2701600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,9 +2686,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,23 +2703,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2522500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2678200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2947900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,9 +2730,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2760,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2790,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2820,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2850,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,24 +2880,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2839000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1005900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>496800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>279300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,9 +2910,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,23 +2927,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1766000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-449300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-587900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1150300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,9 +2954,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2984,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,24 +3014,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1450000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-366200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>343700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1167200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2814,9 +3044,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3061,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3088,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3118,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3148,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,24 +3178,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-732700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-683800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1132100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,24 +3208,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2989,24 +3238,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2031000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>153300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>242900</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3268,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
@@ -717,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6585000</v>
+        <v>6585100</v>
       </c>
       <c r="E8" s="3">
         <v>4850500</v>
@@ -747,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5572000</v>
+        <v>5571800</v>
       </c>
       <c r="E9" s="3">
-        <v>5684300</v>
+        <v>5563200</v>
       </c>
       <c r="F9" s="3">
-        <v>6450100</v>
+        <v>6345000</v>
       </c>
       <c r="G9" s="3">
-        <v>6795600</v>
+        <v>6646100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -777,16 +776,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1013000</v>
+        <v>1013300</v>
       </c>
       <c r="E10" s="3">
-        <v>-833800</v>
+        <v>-712700</v>
       </c>
       <c r="F10" s="3">
-        <v>-637400</v>
+        <v>-532200</v>
       </c>
       <c r="G10" s="3">
-        <v>-599500</v>
+        <v>-450100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -821,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>478000</v>
+        <v>331000</v>
       </c>
       <c r="E12" s="3">
         <v>255300</v>
@@ -910,17 +909,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>197000</v>
       </c>
       <c r="E15" s="3">
-        <v>214500</v>
+        <v>335600</v>
       </c>
       <c r="F15" s="3">
-        <v>190900</v>
+        <v>296000</v>
       </c>
       <c r="G15" s="3">
-        <v>192100</v>
+        <v>341600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -952,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6645000</v>
+        <v>6644900</v>
       </c>
       <c r="E17" s="3">
         <v>6212300</v>
@@ -982,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60000</v>
+        <v>-59800</v>
       </c>
       <c r="E18" s="3">
         <v>-1361800</v>
@@ -1026,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-116000</v>
+        <v>-4600</v>
       </c>
       <c r="E20" s="3">
         <v>149700</v>
@@ -1056,7 +1055,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1443000</v>
+        <v>1554500</v>
       </c>
       <c r="E21" s="3">
         <v>1310400</v>
@@ -1085,8 +1084,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>111300</v>
       </c>
       <c r="E22" s="3">
         <v>151000</v>
@@ -1116,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-176000</v>
+        <v>-175700</v>
       </c>
       <c r="E23" s="3">
         <v>-1363100</v>
@@ -1146,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78000</v>
+        <v>78300</v>
       </c>
       <c r="E24" s="3">
         <v>-12300</v>
@@ -1206,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-254000</v>
+        <v>-253900</v>
       </c>
       <c r="E26" s="3">
         <v>-1350900</v>
@@ -1236,7 +1235,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-254000</v>
+        <v>-250300</v>
       </c>
       <c r="E27" s="3">
         <v>-1347600</v>
@@ -1386,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>116000</v>
+        <v>4600</v>
       </c>
       <c r="E32" s="3">
         <v>-149700</v>
@@ -1416,7 +1415,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-254000</v>
+        <v>-250300</v>
       </c>
       <c r="E33" s="3">
         <v>-1347600</v>
@@ -1476,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-254000</v>
+        <v>-250300</v>
       </c>
       <c r="E35" s="3">
         <v>-1347600</v>
@@ -1569,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2939000</v>
+        <v>764200</v>
       </c>
       <c r="E41" s="3">
         <v>347900</v>
@@ -1598,8 +1597,8 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>2198200</v>
       </c>
       <c r="E42" s="3">
         <v>610700</v>
@@ -1629,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1231000</v>
+        <v>1207700</v>
       </c>
       <c r="E43" s="3">
         <v>1009500</v>
@@ -1659,7 +1658,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1121000</v>
+        <v>1121300</v>
       </c>
       <c r="E44" s="3">
         <v>919500</v>
@@ -1719,7 +1718,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5291000</v>
+        <v>5291300</v>
       </c>
       <c r="E46" s="3">
         <v>2986700</v>
@@ -1748,8 +1747,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>53200</v>
       </c>
       <c r="E47" s="3">
         <v>115500</v>
@@ -1808,8 +1807,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>376700</v>
       </c>
       <c r="E49" s="3">
         <v>547900</v>
@@ -1899,7 +1898,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1024000</v>
+        <v>593400</v>
       </c>
       <c r="E52" s="3">
         <v>445200</v>
@@ -1959,7 +1958,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15028000</v>
+        <v>15027600</v>
       </c>
       <c r="E54" s="3">
         <v>12321600</v>
@@ -2016,8 +2015,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>551100</v>
       </c>
       <c r="E57" s="3">
         <v>600500</v>
@@ -2047,7 +2046,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>297000</v>
+        <v>432200</v>
       </c>
       <c r="E58" s="3">
         <v>513100</v>
@@ -2077,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2866000</v>
+        <v>2179500</v>
       </c>
       <c r="E59" s="3">
         <v>782500</v>
@@ -2107,7 +2106,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3163000</v>
+        <v>3162900</v>
       </c>
       <c r="E60" s="3">
         <v>1896100</v>
@@ -2137,7 +2136,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1716000</v>
+        <v>2006400</v>
       </c>
       <c r="E61" s="3">
         <v>2289400</v>
@@ -2167,7 +2166,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2116000</v>
+        <v>1825200</v>
       </c>
       <c r="E62" s="3">
         <v>894700</v>
@@ -2287,7 +2286,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6995000</v>
+        <v>7052100</v>
       </c>
       <c r="E66" s="3">
         <v>5145300</v>
@@ -2450,8 +2449,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-15468800</v>
       </c>
       <c r="E72" s="3">
         <v>-15218500</v>
@@ -2571,7 +2570,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8033000</v>
+        <v>7975500</v>
       </c>
       <c r="E76" s="3">
         <v>7176400</v>
@@ -2666,7 +2665,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-254000</v>
+        <v>-250300</v>
       </c>
       <c r="E81" s="3">
         <v>-1347600</v>
@@ -2710,7 +2709,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1619000</v>
+        <v>1618800</v>
       </c>
       <c r="E83" s="3">
         <v>2522500</v>
@@ -2934,7 +2933,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1766000</v>
+        <v>-1661600</v>
       </c>
       <c r="E91" s="3">
         <v>-449300</v>
@@ -3024,7 +3023,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1450000</v>
+        <v>-1450300</v>
       </c>
       <c r="E94" s="3">
         <v>-366200</v>
@@ -3188,7 +3187,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>650000</v>
+        <v>650400</v>
       </c>
       <c r="E100" s="3">
         <v>-732700</v>
@@ -3218,7 +3217,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="E101" s="3">
         <v>3800</v>
@@ -3248,7 +3247,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2031000</v>
+        <v>2031100</v>
       </c>
       <c r="E102" s="3">
         <v>-89200</v>

--- a/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,42 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,27 +710,30 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8108000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6585100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4850500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5812800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6196000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,27 +743,30 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5869000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5571800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5563200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6345000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6646100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,27 +776,30 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2239000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1013300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-712700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-532200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-450100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,26 +827,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E12" s="3">
         <v>331000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>255300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>373600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>662600</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,27 +890,30 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-309000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-271500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-550600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>694300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -903,27 +923,30 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>197000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>335600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>296000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>341600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,9 +956,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,26 +971,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6538000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6644900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6212300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6823000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8719300</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,27 +1001,30 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-59800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1361800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1010200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2523300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,9 +1034,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,26 +1052,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>149700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>89000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>70800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,27 +1082,30 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3155000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1554500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1310400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1757000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>495500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,27 +1115,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>111300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>151000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>225900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>157100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,27 +1148,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-175700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1363100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1147100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2609600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,27 +1181,30 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E24" s="3">
         <v>78300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>224100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,9 +1214,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,27 +1247,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-253900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1350900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1371200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2626000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,27 +1280,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-250300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1347600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1371200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2553600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,9 +1313,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,27 +1346,30 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-148000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,27 +1445,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-149700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-89000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-70800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,27 +1478,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-250300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1347600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1371200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2701600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,9 +1511,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,27 +1544,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-250300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1347600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1371200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2701600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1498,32 +1577,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1615,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,23 +1648,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="E41" s="3">
         <v>764200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>347900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>396700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,24 +1678,27 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2198200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>610700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>607400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,24 +1711,27 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1207700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1009500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2039300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,24 +1744,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1121300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>919500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>351900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,24 +1777,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>99100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,24 +1810,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5291300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2986700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3514200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,24 +1843,27 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E47" s="3">
         <v>53200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>115500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>271000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1771,24 +1876,27 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10596000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8713000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8226200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9611300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,24 +1909,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>376700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>547900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>634800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,9 +1942,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,24 +2008,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E52" s="3">
         <v>593400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>445200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>466300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,9 +2041,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,24 +2074,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17841000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15027600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12321600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14497500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,9 +2107,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,23 +2140,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>551100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>559000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,24 +2170,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E58" s="3">
         <v>432200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>513100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>817800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,24 +2203,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3136000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2179500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>782500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>959300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,24 +2236,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3359000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3162900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1896100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2336100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,24 +2269,27 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2288000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2006400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2289400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2430500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2159,24 +2302,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2234000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1825200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>894700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>711800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,9 +2335,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,24 +2434,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7928000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7052100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5145300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5478400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,9 +2467,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,24 +2614,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15468800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15218500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13870900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,9 +2647,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,24 +2746,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9913000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7975500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7176400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9019100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,9 +2779,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,32 +2812,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,27 +2850,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-250300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1347600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1371200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2701600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,9 +2883,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,26 +2901,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1623000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1618800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2522500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2678200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2947900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2931,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,27 +3096,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2839000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1005900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>496800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>279300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,9 +3129,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,26 +3147,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3059000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1661600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-449300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-587900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1150300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3177,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,27 +3243,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4058000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1450300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-366200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>343700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1167200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,9 +3276,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3294,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,27 +3423,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E100" s="3">
         <v>650400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-732700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-683800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1132100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,27 +3456,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,27 +3489,30 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-587000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2031100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>153300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>242900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3522,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/GFS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>GFS</t>
   </si>
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
@@ -834,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>482000</v>
+        <v>372000</v>
       </c>
       <c r="E12" s="3">
         <v>331000</v>
@@ -932,8 +931,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>155000</v>
       </c>
       <c r="E15" s="3">
         <v>197000</v>
@@ -1059,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38000</v>
+        <v>67000</v>
       </c>
       <c r="E20" s="3">
         <v>-4600</v>
@@ -1092,7 +1091,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3155000</v>
+        <v>3260000</v>
       </c>
       <c r="E21" s="3">
         <v>1554500</v>
@@ -1124,8 +1123,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>105000</v>
       </c>
       <c r="E22" s="3">
         <v>111300</v>
@@ -1455,7 +1454,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38000</v>
+        <v>-67000</v>
       </c>
       <c r="E32" s="3">
         <v>4600</v>
@@ -1655,7 +1654,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2352000</v>
+        <v>998000</v>
       </c>
       <c r="E41" s="3">
         <v>764200</v>
@@ -1688,7 +1687,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>622000</v>
+        <v>2055000</v>
       </c>
       <c r="E42" s="3">
         <v>2198200</v>
@@ -1721,7 +1720,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1487000</v>
+        <v>1408000</v>
       </c>
       <c r="E43" s="3">
         <v>1207700</v>
@@ -1853,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>372000</v>
+        <v>519000</v>
       </c>
       <c r="E47" s="3">
         <v>53200</v>
@@ -1918,8 +1917,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>363000</v>
       </c>
       <c r="E49" s="3">
         <v>376700</v>
@@ -2018,7 +2017,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1073000</v>
+        <v>563000</v>
       </c>
       <c r="E52" s="3">
         <v>593400</v>
@@ -2146,8 +2145,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>532000</v>
       </c>
       <c r="E57" s="3">
         <v>551100</v>
@@ -2180,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>223000</v>
+        <v>298000</v>
       </c>
       <c r="E58" s="3">
         <v>432200</v>
@@ -2213,7 +2212,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3136000</v>
+        <v>2529000</v>
       </c>
       <c r="E59" s="3">
         <v>2179500</v>
@@ -2279,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2288000</v>
+        <v>2558000</v>
       </c>
       <c r="E61" s="3">
         <v>2006400</v>
@@ -2312,7 +2311,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2234000</v>
+        <v>1964000</v>
       </c>
       <c r="E62" s="3">
         <v>1825200</v>
@@ -2623,8 +2622,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-14021000</v>
       </c>
       <c r="E72" s="3">
         <v>-15468800</v>
